--- a/Phenoloxidase Activity data/09. AEG 9 (91141).xlsx
+++ b/Phenoloxidase Activity data/09. AEG 9 (91141).xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="4" r:id="rId1"/>
-    <sheet name="1" sheetId="6" r:id="rId2"/>
+    <sheet name="1" sheetId="7" r:id="rId2"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -91,7 +91,7 @@
     <t>G6</t>
   </si>
   <si>
-    <t>Sample 91141</t>
+    <t>Sample 91153</t>
   </si>
 </sst>
 </file>
@@ -208,6 +208,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -412,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300722976"/>
-        <c:axId val="300727288"/>
+        <c:axId val="236800160"/>
+        <c:axId val="236824104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300722976"/>
+        <c:axId val="236800160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +474,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300727288"/>
+        <c:crossAx val="236824104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300727288"/>
+        <c:axId val="236824104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300722976"/>
+        <c:crossAx val="236800160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,6 +600,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -803,11 +805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300726896"/>
-        <c:axId val="300726112"/>
+        <c:axId val="237207344"/>
+        <c:axId val="237207728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300726896"/>
+        <c:axId val="237207344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,12 +866,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300726112"/>
+        <c:crossAx val="237207728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300726112"/>
+        <c:axId val="237207728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300726896"/>
+        <c:crossAx val="237207344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -990,6 +992,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1194,11 +1197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300724936"/>
-        <c:axId val="300723760"/>
+        <c:axId val="237320552"/>
+        <c:axId val="237353712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300724936"/>
+        <c:axId val="237320552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,12 +1258,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300723760"/>
+        <c:crossAx val="237353712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300723760"/>
+        <c:axId val="237353712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300724936"/>
+        <c:crossAx val="237320552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1458,8 +1461,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17371587926509185"/>
-                  <c:y val="9.2045785943423739E-4"/>
+                  <c:x val="-0.42527143482064744"/>
+                  <c:y val="0.2012325021872266"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1541,37 +1544,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-6.8333307902018303E-2</c:v>
+                  <c:v>1.2056000232696533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.5000055631001716E-2</c:v>
+                  <c:v>1.2533999681472778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8566638628641838E-2</c:v>
+                  <c:v>1.2777999639511108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6800017356872559E-2</c:v>
+                  <c:v>1.304900050163269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9800049463907952E-2</c:v>
+                  <c:v>1.3351000547409058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11626668771107984</c:v>
+                  <c:v>1.37090003490448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14849992593129469</c:v>
+                  <c:v>1.4040999412536621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18600006898244215</c:v>
+                  <c:v>1.4435000419616699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22126666704813647</c:v>
+                  <c:v>1.4805999994277954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25743337472279859</c:v>
+                  <c:v>1.5176000595092773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2932666540145874</c:v>
+                  <c:v>1.5537999868392944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,11 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300725720"/>
-        <c:axId val="300721016"/>
+        <c:axId val="237369928"/>
+        <c:axId val="236878488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300725720"/>
+        <c:axId val="237369928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,12 +1650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300721016"/>
+        <c:crossAx val="236878488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300721016"/>
+        <c:axId val="236878488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300725720"/>
+        <c:crossAx val="237369928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1850,8 +1853,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36816032370953633"/>
-                  <c:y val="0.12025189559638379"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.17087962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1933,37 +1936,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.4066627820332771E-2</c:v>
+                  <c:v>1.3179999589920044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5699946085612053E-2</c:v>
+                  <c:v>1.3740999698638916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17506663004557299</c:v>
+                  <c:v>1.424299955368042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20200002193450928</c:v>
+                  <c:v>1.4601000547409058</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24319998423258471</c:v>
+                  <c:v>1.4984999895095825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28116663297017408</c:v>
+                  <c:v>1.5357999801635742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3250000079472859</c:v>
+                  <c:v>1.5806000232696533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36760004361470533</c:v>
+                  <c:v>1.6251000165939331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40416661898295092</c:v>
+                  <c:v>1.6634999513626099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43793328603108717</c:v>
+                  <c:v>1.6980999708175659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47006666660308838</c:v>
+                  <c:v>1.7305999994277954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,11 +1981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300722192"/>
-        <c:axId val="300725328"/>
+        <c:axId val="236864144"/>
+        <c:axId val="236882856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300722192"/>
+        <c:axId val="236864144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,12 +2042,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300725328"/>
+        <c:crossAx val="236882856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300725328"/>
+        <c:axId val="236882856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300722192"/>
+        <c:crossAx val="236864144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2242,8 +2245,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30924365704286966"/>
-                  <c:y val="3.2376786235053953E-2"/>
+                  <c:x val="-0.44871587926509188"/>
+                  <c:y val="0.23767862350539515"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2325,37 +2328,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.7966650327046638E-2</c:v>
+                  <c:v>1.3518999814987183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12200001875559496</c:v>
+                  <c:v>1.4004000425338745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20766667524973559</c:v>
+                  <c:v>1.4569000005722046</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24010002613067627</c:v>
+                  <c:v>1.4982000589370728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29870001475016283</c:v>
+                  <c:v>1.5540000200271606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34926660855611158</c:v>
+                  <c:v>1.6038999557495117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39849992593129469</c:v>
+                  <c:v>1.6540999412536621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44950004418690992</c:v>
+                  <c:v>1.7070000171661377</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49826661745707201</c:v>
+                  <c:v>1.757599949836731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54463334878285719</c:v>
+                  <c:v>1.8048000335693359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57446670532226563</c:v>
+                  <c:v>1.8350000381469727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,11 +2373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400872272"/>
-        <c:axId val="400873448"/>
+        <c:axId val="236964328"/>
+        <c:axId val="236963544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400872272"/>
+        <c:axId val="236964328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,12 +2434,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400873448"/>
+        <c:crossAx val="236963544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400873448"/>
+        <c:axId val="236963544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400872272"/>
+        <c:crossAx val="236964328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2634,8 +2637,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32371587926509188"/>
-                  <c:y val="8.7546296296296303E-2"/>
+                  <c:x val="-0.43824365704286966"/>
+                  <c:y val="0.20791666666666667"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2717,37 +2720,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.7433315912882561E-2</c:v>
+                  <c:v>1.2465000152587891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5999952952067131E-2</c:v>
+                  <c:v>1.2943999767303467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9366704622904534E-2</c:v>
+                  <c:v>1.3486000299453735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12300002574920654</c:v>
+                  <c:v>1.381100058555603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1627999941507976</c:v>
+                  <c:v>1.4180999994277954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21486659844716383</c:v>
+                  <c:v>1.469499945640564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2680999835332234</c:v>
+                  <c:v>1.5236999988555908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31450005372365308</c:v>
+                  <c:v>1.5720000267028809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35856668154398608</c:v>
+                  <c:v>1.617900013923645</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38273330529530836</c:v>
+                  <c:v>1.6428999900817871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38846671581268311</c:v>
+                  <c:v>1.6490000486373901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,11 +2765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400872664"/>
-        <c:axId val="400875016"/>
+        <c:axId val="236964720"/>
+        <c:axId val="236965112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400872664"/>
+        <c:axId val="236964720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,12 +2826,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400875016"/>
+        <c:crossAx val="236965112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400875016"/>
+        <c:axId val="236965112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,7 +2888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400872664"/>
+        <c:crossAx val="236964720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3026,8 +3029,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14871587926509186"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-0.4660214348206474"/>
+                  <c:y val="4.3947944006999126E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3109,37 +3112,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-2.703336874643969E-2</c:v>
+                  <c:v>1.2468999624252319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4099985758463616E-2</c:v>
+                  <c:v>1.3025000095367432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10006670157114672</c:v>
+                  <c:v>1.3493000268936157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14069998264312744</c:v>
+                  <c:v>1.3988000154495239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18380002180735278</c:v>
+                  <c:v>1.4391000270843506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23596664269765211</c:v>
+                  <c:v>1.4905999898910522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2914999326070149</c:v>
+                  <c:v>1.5470999479293823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34569998582204176</c:v>
+                  <c:v>1.6031999588012695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40156666437784838</c:v>
+                  <c:v>1.6608999967575073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43913336594899488</c:v>
+                  <c:v>1.6993000507354736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42716670036315918</c:v>
+                  <c:v>1.6877000331878662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400874232"/>
-        <c:axId val="400874624"/>
+        <c:axId val="236963936"/>
+        <c:axId val="236966288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400874232"/>
+        <c:axId val="236963936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,12 +3218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400874624"/>
+        <c:crossAx val="236966288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="400874624"/>
+        <c:axId val="236966288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400874232"/>
+        <c:crossAx val="236963936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3418,8 +3421,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22927143482064741"/>
-                  <c:y val="4.8599810440361622E-2"/>
+                  <c:x val="-0.34535476815398075"/>
+                  <c:y val="0.21254629629629629"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3501,37 +3504,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-1.8933335940043206E-2</c:v>
+                  <c:v>1.2549999952316284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3199955622355217E-2</c:v>
+                  <c:v>1.3015999794006348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12126664320627856</c:v>
+                  <c:v>1.3704999685287476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15469992160797119</c:v>
+                  <c:v>1.4127999544143677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12519995371500658</c:v>
+                  <c:v>1.3804999589920044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13276668389638258</c:v>
+                  <c:v>1.3874000310897827</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19309993584950758</c:v>
+                  <c:v>1.448699951171875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25939997037251783</c:v>
+                  <c:v>1.5168999433517456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31036667029062914</c:v>
+                  <c:v>1.5697000026702881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3500333627065022</c:v>
+                  <c:v>1.610200047492981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38836669921875</c:v>
+                  <c:v>1.648900032043457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,11 +3549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="400871880"/>
-        <c:axId val="296217784"/>
+        <c:axId val="278413320"/>
+        <c:axId val="278411752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="400871880"/>
+        <c:axId val="278413320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,12 +3610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296217784"/>
+        <c:crossAx val="278411752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296217784"/>
+        <c:axId val="278411752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400871880"/>
+        <c:crossAx val="278413320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9286,7 +9289,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9638,8 +9641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9653,7 +9656,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="2">
-        <v>91141</v>
+        <v>91153</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9697,194 +9700,91 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-6.8333307902018303E-2</v>
+        <f>B6</f>
+        <v>1.2056000232696533</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.2264000177383423</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.2438000440597534</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.2130999565124512</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.2171000242233276</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.2145999670028687</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.2156000137329102</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.2180999517440796</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.2193000316619873</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.2202999591827393</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.2203999757766724</v>
-      </c>
       <c r="N5" s="2">
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>-2.5000055631001716E-2</v>
+        <f>C6</f>
+        <v>1.2533999681472778</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.2875000238418579</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.2755000591278076</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.2539000511169434</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.2589000463485718</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.2572000026702881</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.256600022315979</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.2559000253677368</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.2587000131607056</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.2596999406814575</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.2610000371932983</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.2615000009536743</v>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1.2056000232696533</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:L6" si="0">C4</f>
+        <v>1.2533999681472778</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2777999639511108</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.304900050163269</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3351000547409058</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.37090003490448</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4040999412536621</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4435000419616699</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4805999994277954</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5176000595092773</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5537999868392944</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>2.8566638628641838E-2</v>
+        <f>D6</f>
+        <v>1.2777999639511108</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.3078999519348145</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.3158999681472778</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.2806999683380127</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.29830002784729</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.2941000461578369</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.2914999723434448</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.2953000068664551</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.2956999540328979</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.2992000579833984</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.2997000217437744</v>
-      </c>
       <c r="N7" s="2">
         <v>9</v>
       </c>
       <c r="O7" s="2">
-        <v>4.6800017356872559E-2</v>
+        <f>E6</f>
+        <v>1.304900050163269</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B4-(AVERAGE(B5:B7))</f>
-        <v>-6.8333307902018303E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:L8" si="0">C4-(AVERAGE(C5:C7))</f>
-        <v>-2.5000055631001716E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8566638628641838E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6800017356872559E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9800049463907952E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11626668771107984</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14849992593129469</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18600006898244215</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22126666704813647</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.25743337472279859</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2932666540145874</v>
-      </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <v>7.9800049463907952E-2</v>
+        <f>F6</f>
+        <v>1.3351000547409058</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9892,7 +9792,8 @@
         <v>15</v>
       </c>
       <c r="O9" s="2">
-        <v>0.11626668771107984</v>
+        <f>G6</f>
+        <v>1.37090003490448</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9900,7 +9801,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="2">
-        <v>0.14849992593129469</v>
+        <f>H6</f>
+        <v>1.4040999412536621</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9908,7 +9810,8 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>0.18600006898244215</v>
+        <f>I6</f>
+        <v>1.4435000419616699</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9916,7 +9819,8 @@
         <v>24</v>
       </c>
       <c r="O12" s="2">
-        <v>0.22126666704813647</v>
+        <f>J6</f>
+        <v>1.4805999994277954</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9924,7 +9828,8 @@
         <v>27</v>
       </c>
       <c r="O13" s="2">
-        <v>0.25743337472279859</v>
+        <f>K6</f>
+        <v>1.5176000595092773</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9932,8 +9837,12 @@
         <v>30</v>
       </c>
       <c r="O14" s="2">
-        <v>0.2932666540145874</v>
-      </c>
+        <f>L6</f>
+        <v>1.5537999868392944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -9976,194 +9885,91 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>4.4066627820332771E-2</v>
+        <f>B21</f>
+        <v>1.3179999589920044</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.2264000177383423</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.2438000440597534</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.2130999565124512</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.2171000242233276</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.2145999670028687</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.2156000137329102</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.2180999517440796</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.2193000316619873</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.2202999591827393</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.2203999757766724</v>
-      </c>
       <c r="N20" s="2">
         <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>9.5699946085612053E-2</v>
+        <f>C21</f>
+        <v>1.3740999698638916</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.2875000238418579</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.2755000591278076</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.2539000511169434</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.2589000463485718</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2572000026702881</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.256600022315979</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.2559000253677368</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.2587000131607056</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.2596999406814575</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.2610000371932983</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.2615000009536743</v>
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B19</f>
+        <v>1.3179999589920044</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:L21" si="1">C19</f>
+        <v>1.3740999698638916</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.424299955368042</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4601000547409058</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4984999895095825</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5357999801635742</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5806000232696533</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6251000165939331</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6634999513626099</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6980999708175659</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7305999994277954</v>
       </c>
       <c r="N21" s="2">
         <v>6</v>
       </c>
       <c r="O21" s="2">
-        <v>0.17506663004557299</v>
+        <f>D21</f>
+        <v>1.424299955368042</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.3078999519348145</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.3158999681472778</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.2806999683380127</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.29830002784729</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.2941000461578369</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.2914999723434448</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.2953000068664551</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.2956999540328979</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.2992000579833984</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.2997000217437744</v>
-      </c>
       <c r="N22" s="2">
         <v>9</v>
       </c>
       <c r="O22" s="2">
-        <v>0.20200002193450928</v>
+        <f>E21</f>
+        <v>1.4601000547409058</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B19-(AVERAGE(B20:B22))</f>
-        <v>4.4066627820332771E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:L23" si="1">C19-(AVERAGE(C20:C22))</f>
-        <v>9.5699946085612053E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17506663004557299</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20200002193450928</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.24319998423258471</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.28116663297017408</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3250000079472859</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.36760004361470533</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.40416661898295092</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43793328603108717</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.47006666660308838</v>
-      </c>
       <c r="N23" s="2">
         <v>12</v>
       </c>
       <c r="O23" s="2">
-        <v>0.24319998423258471</v>
+        <f>F21</f>
+        <v>1.4984999895095825</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10171,7 +9977,8 @@
         <v>15</v>
       </c>
       <c r="O24" s="2">
-        <v>0.28116663297017408</v>
+        <f>G21</f>
+        <v>1.5357999801635742</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10179,7 +9986,8 @@
         <v>18</v>
       </c>
       <c r="O25" s="2">
-        <v>0.3250000079472859</v>
+        <f>H21</f>
+        <v>1.5806000232696533</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10187,7 +9995,8 @@
         <v>21</v>
       </c>
       <c r="O26" s="2">
-        <v>0.36760004361470533</v>
+        <f>I21</f>
+        <v>1.6251000165939331</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10195,7 +10004,8 @@
         <v>24</v>
       </c>
       <c r="O27" s="2">
-        <v>0.40416661898295092</v>
+        <f>J21</f>
+        <v>1.6634999513626099</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10203,7 +10013,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="2">
-        <v>0.43793328603108717</v>
+        <f>K21</f>
+        <v>1.6980999708175659</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10211,7 +10022,8 @@
         <v>30</v>
       </c>
       <c r="O29" s="2">
-        <v>0.47006666660308838</v>
+        <f>L21</f>
+        <v>1.7305999994277954</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -10255,194 +10067,91 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>7.7966650327046638E-2</v>
+        <f>B37</f>
+        <v>1.3518999814987183</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.2264000177383423</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.2438000440597534</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.2130999565124512</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.2171000242233276</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.2145999670028687</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.2156000137329102</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.2180999517440796</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.2193000316619873</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1.2202999591827393</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.2203999757766724</v>
-      </c>
       <c r="N36" s="2">
         <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>0.12200001875559496</v>
+        <f>C37</f>
+        <v>1.4004000425338745</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.2875000238418579</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.2755000591278076</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.2539000511169434</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.2589000463485718</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.2572000026702881</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.256600022315979</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.2559000253677368</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.2587000131607056</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1.2596999406814575</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.2610000371932983</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1.2615000009536743</v>
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B35</f>
+        <v>1.3518999814987183</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:L37" si="2">C35</f>
+        <v>1.4004000425338745</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4569000005722046</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4982000589370728</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5540000200271606</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6038999557495117</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6540999412536621</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7070000171661377</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.757599949836731</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8048000335693359</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8350000381469727</v>
       </c>
       <c r="N37" s="2">
         <v>6</v>
       </c>
       <c r="O37" s="2">
-        <v>0.20766667524973559</v>
+        <f>D37</f>
+        <v>1.4569000005722046</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.3078999519348145</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.3158999681472778</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.2806999683380127</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.29830002784729</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.2941000461578369</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.2914999723434448</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.2953000068664551</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.2956999540328979</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1.2992000579833984</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.2997000217437744</v>
-      </c>
       <c r="N38" s="2">
         <v>9</v>
       </c>
       <c r="O38" s="2">
-        <v>0.24010002613067627</v>
+        <f>E37</f>
+        <v>1.4982000589370728</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <f>B35-(AVERAGE(B36:B38))</f>
-        <v>7.7966650327046638E-2</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:L39" si="2">C35-(AVERAGE(C36:C38))</f>
-        <v>0.12200001875559496</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20766667524973559</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24010002613067627</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.29870001475016283</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.34926660855611158</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.39849992593129469</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.44950004418690992</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.49826661745707201</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.54463334878285719</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.57446670532226563</v>
-      </c>
       <c r="N39" s="2">
         <v>12</v>
       </c>
       <c r="O39" s="2">
-        <v>0.29870001475016283</v>
+        <f>F37</f>
+        <v>1.5540000200271606</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10450,7 +10159,8 @@
         <v>15</v>
       </c>
       <c r="O40" s="2">
-        <v>0.34926660855611158</v>
+        <f>G37</f>
+        <v>1.6038999557495117</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -10458,7 +10168,8 @@
         <v>18</v>
       </c>
       <c r="O41" s="2">
-        <v>0.39849992593129469</v>
+        <f>H37</f>
+        <v>1.6540999412536621</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -10466,7 +10177,8 @@
         <v>21</v>
       </c>
       <c r="O42" s="2">
-        <v>0.44950004418690992</v>
+        <f>I37</f>
+        <v>1.7070000171661377</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -10475,7 +10187,8 @@
         <v>24</v>
       </c>
       <c r="O43" s="2">
-        <v>0.49826661745707201</v>
+        <f>J37</f>
+        <v>1.757599949836731</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -10483,7 +10196,8 @@
         <v>27</v>
       </c>
       <c r="O44" s="2">
-        <v>0.54463334878285719</v>
+        <f>K37</f>
+        <v>1.8048000335693359</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -10491,7 +10205,8 @@
         <v>30</v>
       </c>
       <c r="O45" s="2">
-        <v>0.57446670532226563</v>
+        <f>L37</f>
+        <v>1.8350000381469727</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -10535,194 +10250,91 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>-2.7433315912882561E-2</v>
+        <f>B53</f>
+        <v>1.2465000152587891</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.2264000177383423</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.2438000440597534</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.2130999565124512</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.2171000242233276</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.2145999670028687</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.2156000137329102</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1.2180999517440796</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1.2193000316619873</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1.2202999591827393</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1.2203999757766724</v>
-      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
       <c r="O52" s="2">
-        <v>1.5999952952067131E-2</v>
+        <f>C53</f>
+        <v>1.2943999767303467</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1.2875000238418579</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.2755000591278076</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.2539000511169434</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.2589000463485718</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.2572000026702881</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.256600022315979</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.2559000253677368</v>
-      </c>
-      <c r="I53" s="1">
-        <v>1.2587000131607056</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1.2596999406814575</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1.2610000371932983</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1.2615000009536743</v>
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B51</f>
+        <v>1.2465000152587891</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ref="C53:L53" si="3">C51</f>
+        <v>1.2943999767303467</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3486000299453735</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.381100058555603</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4180999994277954</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.469499945640564</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5236999988555908</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5720000267028809</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.617900013923645</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6428999900817871</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6490000486373901</v>
       </c>
       <c r="N53" s="2">
         <v>6</v>
       </c>
       <c r="O53" s="2">
-        <v>9.9366704622904534E-2</v>
+        <f>D53</f>
+        <v>1.3486000299453735</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1.3078999519348145</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.3158999681472778</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.2806999683380127</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.29830002784729</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.2941000461578369</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.2914999723434448</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.2953000068664551</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.2956999540328979</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1.2992000579833984</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1.2997000217437744</v>
-      </c>
       <c r="N54" s="2">
         <v>9</v>
       </c>
       <c r="O54" s="2">
-        <v>0.12300002574920654</v>
+        <f>E53</f>
+        <v>1.381100058555603</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <f>B51-(AVERAGE(B52:B54))</f>
-        <v>-2.7433315912882561E-2</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" ref="C55:L55" si="3">C51-(AVERAGE(C52:C54))</f>
-        <v>1.5999952952067131E-2</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="3"/>
-        <v>9.9366704622904534E-2</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.12300002574920654</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1627999941507976</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.21486659844716383</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2680999835332234</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.31450005372365308</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.35856668154398608</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38273330529530836</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38846671581268311</v>
-      </c>
       <c r="N55" s="2">
         <v>12</v>
       </c>
       <c r="O55" s="2">
-        <v>0.1627999941507976</v>
+        <f>F53</f>
+        <v>1.4180999994277954</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -10730,7 +10342,8 @@
         <v>15</v>
       </c>
       <c r="O56" s="2">
-        <v>0.21486659844716383</v>
+        <f>G53</f>
+        <v>1.469499945640564</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -10738,7 +10351,8 @@
         <v>18</v>
       </c>
       <c r="O57" s="2">
-        <v>0.2680999835332234</v>
+        <f>H53</f>
+        <v>1.5236999988555908</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -10746,7 +10360,8 @@
         <v>21</v>
       </c>
       <c r="O58" s="2">
-        <v>0.31450005372365308</v>
+        <f>I53</f>
+        <v>1.5720000267028809</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -10754,7 +10369,8 @@
         <v>24</v>
       </c>
       <c r="O59" s="2">
-        <v>0.35856668154398608</v>
+        <f>J53</f>
+        <v>1.617900013923645</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -10762,7 +10378,8 @@
         <v>27</v>
       </c>
       <c r="O60" s="2">
-        <v>0.38273330529530836</v>
+        <f>K53</f>
+        <v>1.6428999900817871</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -10770,7 +10387,8 @@
         <v>30</v>
       </c>
       <c r="O61" s="2">
-        <v>0.38846671581268311</v>
+        <f>L53</f>
+        <v>1.6490000486373901</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -10814,194 +10432,91 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>-2.703336874643969E-2</v>
+        <f>B70</f>
+        <v>1.2468999624252319</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1.2264000177383423</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.2438000440597534</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.2130999565124512</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.2171000242233276</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.2145999670028687</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.2156000137329102</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.2180999517440796</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1.2193000316619873</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1.2202999591827393</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1.2203999757766724</v>
-      </c>
       <c r="N69" s="2">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <v>2.4099985758463616E-2</v>
+        <f>C70</f>
+        <v>1.3025000095367432</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1.2875000238418579</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.2755000591278076</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.2539000511169434</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.2589000463485718</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.2572000026702881</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1.256600022315979</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.2559000253677368</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.2587000131607056</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1.2596999406814575</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1.2610000371932983</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1.2615000009536743</v>
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <f>B68</f>
+        <v>1.2468999624252319</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:L70" si="4">C68</f>
+        <v>1.3025000095367432</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3493000268936157</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3988000154495239</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4391000270843506</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.4905999898910522</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5470999479293823</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6031999588012695</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6608999967575073</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6993000507354736</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6877000331878662</v>
       </c>
       <c r="N70" s="2">
         <v>6</v>
       </c>
       <c r="O70" s="2">
-        <v>0.10006670157114672</v>
+        <f>D70</f>
+        <v>1.3493000268936157</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1.3078999519348145</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.3158999681472778</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.2806999683380127</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.29830002784729</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.2941000461578369</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1.2914999723434448</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1.2953000068664551</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.2956999540328979</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1.2992000579833984</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1.2997000217437744</v>
-      </c>
       <c r="N71" s="2">
         <v>9</v>
       </c>
       <c r="O71" s="2">
-        <v>0.14069998264312744</v>
+        <f>E70</f>
+        <v>1.3988000154495239</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <f>B68-(AVERAGE(B69:B71))</f>
-        <v>-2.703336874643969E-2</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" ref="C72:L72" si="4">C68-(AVERAGE(C69:C71))</f>
-        <v>2.4099985758463616E-2</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.10006670157114672</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14069998264312744</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.18380002180735278</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.23596664269765211</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2914999326070149</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.34569998582204176</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.40156666437784838</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.43913336594899488</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.42716670036315918</v>
-      </c>
       <c r="N72" s="2">
         <v>12</v>
       </c>
       <c r="O72" s="2">
-        <v>0.18380002180735278</v>
+        <f>F70</f>
+        <v>1.4391000270843506</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -11009,7 +10524,8 @@
         <v>15</v>
       </c>
       <c r="O73" s="2">
-        <v>0.23596664269765211</v>
+        <f>G70</f>
+        <v>1.4905999898910522</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -11017,7 +10533,8 @@
         <v>18</v>
       </c>
       <c r="O74" s="2">
-        <v>0.2914999326070149</v>
+        <f>H70</f>
+        <v>1.5470999479293823</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -11025,7 +10542,8 @@
         <v>21</v>
       </c>
       <c r="O75" s="2">
-        <v>0.34569998582204176</v>
+        <f>I70</f>
+        <v>1.6031999588012695</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -11033,7 +10551,8 @@
         <v>24</v>
       </c>
       <c r="O76" s="2">
-        <v>0.40156666437784838</v>
+        <f>J70</f>
+        <v>1.6608999967575073</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -11041,7 +10560,8 @@
         <v>27</v>
       </c>
       <c r="O77" s="2">
-        <v>0.43913336594899488</v>
+        <f>K70</f>
+        <v>1.6993000507354736</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -11049,7 +10569,8 @@
         <v>30</v>
       </c>
       <c r="O78" s="2">
-        <v>0.42716670036315918</v>
+        <f>L70</f>
+        <v>1.6877000331878662</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -11093,194 +10614,91 @@
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>-1.8933335940043206E-2</v>
+        <f>B87</f>
+        <v>1.2549999952316284</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1.2264000177383423</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.2438000440597534</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1.2130999565124512</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1.2171000242233276</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1.2145999670028687</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1.2156000137329102</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1.2180999517440796</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1.2193000316619873</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1.2202999591827393</v>
-      </c>
-      <c r="L86" s="1">
-        <v>1.2203999757766724</v>
-      </c>
       <c r="N86" s="2">
         <v>3</v>
       </c>
       <c r="O86" s="2">
-        <v>2.3199955622355217E-2</v>
+        <f>C87</f>
+        <v>1.3015999794006348</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1.2875000238418579</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.2755000591278076</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1.2539000511169434</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1.2589000463485718</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.2572000026702881</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1.256600022315979</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.2559000253677368</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.2587000131607056</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1.2596999406814575</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1.2610000371932983</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.2615000009536743</v>
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B85</f>
+        <v>1.2549999952316284</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" ref="C87:L87" si="5">C85</f>
+        <v>1.3015999794006348</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3704999685287476</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4127999544143677</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3804999589920044</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3874000310897827</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.448699951171875</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5168999433517456</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5697000026702881</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.610200047492981</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.648900032043457</v>
       </c>
       <c r="N87" s="2">
         <v>6</v>
       </c>
       <c r="O87" s="2">
-        <v>0.12126664320627856</v>
+        <f>D87</f>
+        <v>1.3704999685287476</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1.3078999519348145</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.3158999681472778</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1.2806999683380127</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1.29830002784729</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.2941000461578369</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1.2914999723434448</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1.2953000068664551</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1.2956999540328979</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1.2990000247955322</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1.2992000579833984</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1.2997000217437744</v>
-      </c>
       <c r="N88" s="2">
         <v>9</v>
       </c>
       <c r="O88" s="2">
-        <v>0.15469992160797119</v>
+        <f>E87</f>
+        <v>1.4127999544143677</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <f>B85-(AVERAGE(B86:B88))</f>
-        <v>-1.8933335940043206E-2</v>
-      </c>
-      <c r="C89" s="2">
-        <f t="shared" ref="C89:L89" si="5">C85-(AVERAGE(C86:C88))</f>
-        <v>2.3199955622355217E-2</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.12126664320627856</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.15469992160797119</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.12519995371500658</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.13276668389638258</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.19309993584950758</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.25939997037251783</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.31036667029062914</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.3500333627065022</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.38836669921875</v>
-      </c>
       <c r="N89" s="2">
         <v>12</v>
       </c>
       <c r="O89" s="2">
-        <v>0.12519995371500658</v>
+        <f>F87</f>
+        <v>1.3804999589920044</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -11288,7 +10706,8 @@
         <v>15</v>
       </c>
       <c r="O90" s="2">
-        <v>0.13276668389638258</v>
+        <f>G87</f>
+        <v>1.3874000310897827</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -11296,7 +10715,8 @@
         <v>18</v>
       </c>
       <c r="O91" s="2">
-        <v>0.19309993584950758</v>
+        <f>H87</f>
+        <v>1.448699951171875</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -11304,7 +10724,8 @@
         <v>21</v>
       </c>
       <c r="O92" s="2">
-        <v>0.25939997037251783</v>
+        <f>I87</f>
+        <v>1.5168999433517456</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -11312,7 +10733,8 @@
         <v>24</v>
       </c>
       <c r="O93" s="2">
-        <v>0.31036667029062914</v>
+        <f>J87</f>
+        <v>1.5697000026702881</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -11320,7 +10742,8 @@
         <v>27</v>
       </c>
       <c r="O94" s="2">
-        <v>0.3500333627065022</v>
+        <f>K87</f>
+        <v>1.610200047492981</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -11328,7 +10751,8 @@
         <v>30</v>
       </c>
       <c r="O95" s="2">
-        <v>0.38836669921875</v>
+        <f>L87</f>
+        <v>1.648900032043457</v>
       </c>
     </row>
   </sheetData>
@@ -11342,8 +10766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11399,28 +10823,28 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.17E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="E3" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F3" s="1">
         <f>D3-E3</f>
-        <v>1.15E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G3" s="1">
         <v>6.2399999999999997E-2</v>
       </c>
       <c r="H3" s="1">
         <f>F3/G3</f>
-        <v>0.18429487179487181</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="I3" s="7">
         <v>63.733333333333356</v>
       </c>
       <c r="J3" s="7">
         <f>(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>28.916559382040543</v>
+        <v>28.162214354682966</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -11430,28 +10854,28 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1.3899999999999999E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="E4" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
-        <v>1.3699999999999999E-2</v>
+        <v>1.3399999999999999E-2</v>
       </c>
       <c r="G4" s="1">
         <v>6.2399999999999997E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H5" si="1">F4/G4</f>
-        <v>0.21955128205128205</v>
+        <v>0.21474358974358973</v>
       </c>
       <c r="I4" s="7">
         <v>63.733333333333356</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J5" si="2">(H4*60*50000*100)/(1000*50*0.6*I4)</f>
-        <v>34.448422915996126</v>
+        <v>33.694077888638539</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -11461,28 +10885,28 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>1.6899999999999998E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="E5" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>1.67E-2</v>
+        <v>1.6300000000000002E-2</v>
       </c>
       <c r="G5" s="1">
         <v>6.2399999999999997E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.26762820512820512</v>
+        <v>0.26121794871794879</v>
       </c>
       <c r="I5" s="7">
         <v>63.733333333333356</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="2"/>
-        <v>41.991873189571919</v>
+        <v>40.986079819761827</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -11492,28 +10916,28 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1.46E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="E6" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F6" s="1">
         <f>D6-E6</f>
-        <v>1.44E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G6" s="1">
         <v>6.2399999999999997E-2</v>
       </c>
       <c r="H6" s="1">
         <f>F6/G6</f>
-        <v>0.23076923076923078</v>
+        <v>0.22435897435897437</v>
       </c>
       <c r="I6" s="7">
         <v>63.733333333333356</v>
       </c>
       <c r="J6" s="7">
         <f>(H6*60*50000*100)/(1000*50*0.6*I6)</f>
-        <v>36.208561313163813</v>
+        <v>35.202767943353713</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -11523,28 +10947,28 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1.6199999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E7" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F8" si="3">D7-E7</f>
-        <v>1.6E-2</v>
+        <v>1.5700000000000002E-2</v>
       </c>
       <c r="G7" s="1">
         <v>6.2399999999999997E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H8" si="4">F7/G7</f>
-        <v>0.25641025641025644</v>
+        <v>0.25160256410256415</v>
       </c>
       <c r="I7" s="7">
         <v>63.733333333333356</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J8" si="5">(H7*60*50000*100)/(1000*50*0.6*I7)</f>
-        <v>40.231734792404247</v>
+        <v>39.477389765046652</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -11554,28 +10978,28 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>1.2699999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E8" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>1.2499999999999999E-2</v>
+        <v>1.2199999999999999E-2</v>
       </c>
       <c r="G8" s="1">
         <v>6.2399999999999997E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>0.2003205128205128</v>
+        <v>0.19551282051282051</v>
       </c>
       <c r="I8" s="7">
         <v>63.733333333333356</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="5"/>
-        <v>31.431042806565806</v>
+        <v>30.676697779208226</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
